--- a/biology/Médecine/Medscape/Medscape.xlsx
+++ b/biology/Médecine/Medscape/Medscape.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Medscape est un site Web donnant accès à des informations médicales pour les cliniciens. Il offre également une formation continue aux médecins et aux professionnels de la santé. 
@@ -512,9 +524,11 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site fait référence à des articles de revues médicales, à la formation médicale continue (FMC), à une version de la base de données MEDLINE de la National Library of Medicine, à des actualités médicales et à des informations sur les médicaments (Medscape Drug Reference ou MDR). À un moment donné[Quand ?], Medscape a publié sept revues électroniques à comité de lecture[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site fait référence à des articles de revues médicales, à la formation médicale continue (FMC), à une version de la base de données MEDLINE de la National Library of Medicine, à des actualités médicales et à des informations sur les médicaments (Medscape Drug Reference ou MDR). À un moment donné[Quand ?], Medscape a publié sept revues électroniques à comité de lecture.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Medscape a été lancé le 22 mai 1995 par SCP Communications, Inc.[2] sous la direction de son PDG Peter Frishauf[3]. En 1999, George D. Lundberg (en) est devenu le rédacteur en chef de Medscape. Pendant dix-sept ans, avant de rejoindre Medscape, il avait été rédacteur en chef du Journal of the American Medical Association (JAMA).
-En septembre 1999, Medscape, Inc. est devenue publique et a commencé à se négocier sur le NASDAQ sous le symbole MSCP. En 2000, Medscape a fusionné avec MedicaLogic, Inc., une autre société publique. MedicaLogic a déposé son bilan dans les 18 mois qui ont suivi et a vendu Medscape à WebMD en décembre 2001. En 2008, Lundberg a été licencié par WebMD. L'année suivante, le Medscape Journal of Medicine a cessé de paraître[4]. En janvier 2013, Eric Topol a été nommé rédacteur en chef de Medscape[5]. La même année, George D. Lundberg est revenu à Medscape en tant que rédacteur en chef.
-En 2009, WebMD a publié une application iOS de Medscape[6], suivie d'une version Android deux ans plus tard[7]. En 2015, WebMD a lancé Medscape CME &amp; Education sur iOS[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Medscape a été lancé le 22 mai 1995 par SCP Communications, Inc. sous la direction de son PDG Peter Frishauf. En 1999, George D. Lundberg (en) est devenu le rédacteur en chef de Medscape. Pendant dix-sept ans, avant de rejoindre Medscape, il avait été rédacteur en chef du Journal of the American Medical Association (JAMA).
+En septembre 1999, Medscape, Inc. est devenue publique et a commencé à se négocier sur le NASDAQ sous le symbole MSCP. En 2000, Medscape a fusionné avec MedicaLogic, Inc., une autre société publique. MedicaLogic a déposé son bilan dans les 18 mois qui ont suivi et a vendu Medscape à WebMD en décembre 2001. En 2008, Lundberg a été licencié par WebMD. L'année suivante, le Medscape Journal of Medicine a cessé de paraître. En janvier 2013, Eric Topol a été nommé rédacteur en chef de Medscape. La même année, George D. Lundberg est revenu à Medscape en tant que rédacteur en chef.
+En 2009, WebMD a publié une application iOS de Medscape, suivie d'une version Android deux ans plus tard. En 2015, WebMD a lancé Medscape CME &amp; Education sur iOS.
 </t>
         </is>
       </c>
